--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109812.1643787658</v>
+        <v>19645774.163906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109812.1643787658</v>
+        <v>19645774.163906</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34409.49415638334</v>
+        <v>4313994.624421626</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34409.49415638334</v>
+        <v>4313994.624421626</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418032470.313698</v>
+        <v>52644239.53847564</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11234.451511133</v>
+        <v>1150783.953345229</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21774.76619435413</v>
+        <v>2201695.973821075</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32280.23643313079</v>
+        <v>3247294.216519144</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42882.54766604628</v>
+        <v>4278929.217382956</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53334.61241732466</v>
+        <v>5331724.512101261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63536.41337854449</v>
+        <v>6408327.243059071</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73834.8975295751</v>
+        <v>7526378.064989642</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84064.12785405319</v>
+        <v>8631822.114638982</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94838.1975804339</v>
+        <v>9667671.873045418</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104798.2553521288</v>
+        <v>10771623.18422928</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113927.8670562984</v>
+        <v>11784723.58133362</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123819.9828360915</v>
+        <v>12916037.1974986</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133712.0986158846</v>
+        <v>14047350.81366358</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144463.306280424</v>
+        <v>15094823.48083169</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156756.6878280916</v>
+        <v>15914664.61797191</v>
       </c>
     </row>
   </sheetData>
